--- a/src/data/housing_market_Q1/processed/mw2301-january-city-toronto.xlsx
+++ b/src/data/housing_market_Q1/processed/mw2301-january-city-toronto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobs\projects\City of Toronto\src\data\housing_market_Q1\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F072AB-E57D-438B-A115-527DE5A0C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6F6AA-9F47-4C21-AC09-D565467045F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{48823E95-69A9-4C80-A511-FE47259BA26E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="1" xr2:uid="{48823E95-69A9-4C80-A511-FE47259BA26E}"/>
   </bookViews>
   <sheets>
     <sheet name="all_home_type" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">all_home_type!$A$1:$I$41</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">detached!$A$1:$I$41</definedName>
-    <definedName name="ExternalData_10" localSheetId="10" hidden="1">index_and_benchmark_price!$A$1:$AK$39</definedName>
+    <definedName name="ExternalData_10" localSheetId="10" hidden="1">index_and_benchmark_price!$A$1:$AI$39</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">semi_detached!$A$1:$J$41</definedName>
     <definedName name="ExternalData_3" localSheetId="3" hidden="1">townhouse!$A$1:$I$41</definedName>
     <definedName name="ExternalData_4" localSheetId="4" hidden="1">condo_townhouse!$A$1:$I$41</definedName>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1353">
   <si>
     <t/>
   </si>
@@ -2691,12 +2691,6 @@
     <t>Yr./Yr. % Chg.</t>
   </si>
   <si>
-    <t>All TRREB</t>
-  </si>
-  <si>
-    <t>Areas</t>
-  </si>
-  <si>
     <t>341 .0</t>
   </si>
   <si>
@@ -2748,12 +2742,6 @@
     <t>-4.1 4%</t>
   </si>
   <si>
-    <t>City of Tor</t>
-  </si>
-  <si>
-    <t>onto</t>
-  </si>
-  <si>
     <t>292 .8</t>
   </si>
   <si>
@@ -3300,9 +3288,6 @@
     <t>-7.5 4%</t>
   </si>
   <si>
-    <t>Toronto C</t>
-  </si>
-  <si>
     <t>339 .1</t>
   </si>
   <si>
@@ -3888,9 +3873,6 @@
     <t>5%</t>
   </si>
   <si>
-    <t>Toronto E0</t>
-  </si>
-  <si>
     <t>415 .9</t>
   </si>
   <si>
@@ -4230,9 +4212,6 @@
     <t>$593</t>
   </si>
   <si>
-    <t>Toronto E1</t>
-  </si>
-  <si>
     <t>340 .6</t>
   </si>
   <si>
@@ -4305,13 +4284,85 @@
     <t>$517</t>
   </si>
   <si>
-    <t xml:space="preserve">Toronto C </t>
-  </si>
-  <si>
     <t>Active Listings</t>
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Toronto C 01</t>
+  </si>
+  <si>
+    <t>Toronto C 02</t>
+  </si>
+  <si>
+    <t>Toronto C 03</t>
+  </si>
+  <si>
+    <t>Toronto C 04</t>
+  </si>
+  <si>
+    <t>Toronto C 06</t>
+  </si>
+  <si>
+    <t>Toronto C 07</t>
+  </si>
+  <si>
+    <t>Toronto C 08</t>
+  </si>
+  <si>
+    <t>Toronto C 09</t>
+  </si>
+  <si>
+    <t>Toronto C 10</t>
+  </si>
+  <si>
+    <t>Toronto C 11</t>
+  </si>
+  <si>
+    <t>Toronto C 12</t>
+  </si>
+  <si>
+    <t>Toronto C 13</t>
+  </si>
+  <si>
+    <t>Toronto C 14</t>
+  </si>
+  <si>
+    <t>Toronto C 15</t>
+  </si>
+  <si>
+    <t>Toronto E0 1</t>
+  </si>
+  <si>
+    <t>Toronto E0 2</t>
+  </si>
+  <si>
+    <t>Toronto E0 3</t>
+  </si>
+  <si>
+    <t>Toronto E0 4</t>
+  </si>
+  <si>
+    <t>Toronto E0 5</t>
+  </si>
+  <si>
+    <t>Toronto E0 6</t>
+  </si>
+  <si>
+    <t>Toronto E0 7</t>
+  </si>
+  <si>
+    <t>Toronto E0 8</t>
+  </si>
+  <si>
+    <t>Toronto E0 9</t>
+  </si>
+  <si>
+    <t>Toronto E1 0</t>
+  </si>
+  <si>
+    <t>Toronto E1 1</t>
   </si>
 </sst>
 </file>
@@ -4347,7 +4398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4357,36 +4408,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="116">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4456,18 +4485,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4614,6 +4631,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4678,6 +4698,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4787,10 +4827,8 @@
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_10" headers="0" backgroundRefresh="0" connectionId="2" xr16:uid="{DB54D381-702C-4E43-8078-A77394AD8523}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="38">
-    <queryTableFields count="37">
+    <queryTableFields count="35">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Toronto Regional Real Estate Board" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
@@ -4826,6 +4864,10 @@
       <queryTableField id="36" name="Column36" tableColumnId="36"/>
       <queryTableField id="37" name="Column37" tableColumnId="37"/>
     </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="Column3"/>
+      <deletedField name="Column2"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
@@ -5044,15 +5086,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAEF2584-D1C2-45E4-8287-799696297BAB}" name="Table_Page003" displayName="Table_Page003" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EA066FF0-E140-41C1-8197-9807B3779055}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{03A05E5C-F561-4062-8487-A497AAFF2F03}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{C81CFEFF-8114-4C37-B4B8-843CF32C03F0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{7B62DC21-74D8-4BD8-BB6E-9829765C7A14}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{925EBE09-6E9D-490A-B64F-9B11C2F6AFFE}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{56D01395-D2F9-473E-9AE0-B24BC9FF62C5}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{17AA7AA0-E0AC-4805-AAF8-CC614A63FDA0}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{DB58679D-A1D2-435F-A2D4-02CF45A2C81A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{D766833E-548A-4273-9B5B-B15086A724A0}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{EA066FF0-E140-41C1-8197-9807B3779055}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{03A05E5C-F561-4062-8487-A497AAFF2F03}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{C81CFEFF-8114-4C37-B4B8-843CF32C03F0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{7B62DC21-74D8-4BD8-BB6E-9829765C7A14}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{925EBE09-6E9D-490A-B64F-9B11C2F6AFFE}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{56D01395-D2F9-473E-9AE0-B24BC9FF62C5}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{17AA7AA0-E0AC-4805-AAF8-CC614A63FDA0}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{DB58679D-A1D2-435F-A2D4-02CF45A2C81A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{D766833E-548A-4273-9B5B-B15086A724A0}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5061,60 +5103,58 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EA267B23-417F-41A2-BA2E-1C479084F0F9}" name="Table_Page012" displayName="Table_Page012" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D7D39249-83E5-4EAA-9D4F-2D645710A043}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{71C1A5B2-423A-4740-925B-EF37CAFAFC47}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{0DCB4172-F6CA-410F-AC10-81BEF86A191D}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{303504D8-ED6E-4C47-88A0-329C1FA789F9}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{CD44BADA-EEDC-4A8B-8264-BD18032921BA}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{B4BD8633-002A-4BAB-9573-535CC4DAF7C4}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{7B1E5E17-B480-4727-9FE0-B74302F9FD19}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{7F49D8BC-5F93-44C7-B1D6-7982F0026FCA}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{C4709566-A2EF-4249-919D-3B94900F1934}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D7D39249-83E5-4EAA-9D4F-2D645710A043}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{71C1A5B2-423A-4740-925B-EF37CAFAFC47}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{0DCB4172-F6CA-410F-AC10-81BEF86A191D}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{303504D8-ED6E-4C47-88A0-329C1FA789F9}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CD44BADA-EEDC-4A8B-8264-BD18032921BA}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{B4BD8633-002A-4BAB-9573-535CC4DAF7C4}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{7B1E5E17-B480-4727-9FE0-B74302F9FD19}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{7F49D8BC-5F93-44C7-B1D6-7982F0026FCA}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{C4709566-A2EF-4249-919D-3B94900F1934}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2A1FB53A-A0E2-4230-94F9-203B59C5E5A2}" name="Table_Page013" displayName="Table_Page013" ref="A1:AK39" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{F440DDC7-EA66-4C03-A510-B3316185B7F4}" uniqueName="1" name="Column1" queryTableFieldId="1" headerRowDxfId="3" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{945CDD5F-83F9-4328-841B-C7409DA83994}" uniqueName="2" name="Column2" queryTableFieldId="2" headerRowDxfId="4" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{5944A58F-C7BD-4F55-B357-8FB00F1BFB49}" uniqueName="3" name="Column3" queryTableFieldId="3" headerRowDxfId="5" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{FD9AB0F1-963F-4272-B15F-5BF233DD2F98}" uniqueName="4" name="Toronto Regional Real Estate Board" queryTableFieldId="4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{36958580-8E62-4157-AADE-3DD303874EB9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{FDE2657E-7775-4806-A980-A415E548D111}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2A1FB53A-A0E2-4230-94F9-203B59C5E5A2}" name="Table_Page013" displayName="Table_Page013" ref="A1:AI39" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{F440DDC7-EA66-4C03-A510-B3316185B7F4}" uniqueName="1" name="Column1" queryTableFieldId="1" headerRowDxfId="24" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{FD9AB0F1-963F-4272-B15F-5BF233DD2F98}" uniqueName="4" name="Toronto Regional Real Estate Board" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{36958580-8E62-4157-AADE-3DD303874EB9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{FDE2657E-7775-4806-A980-A415E548D111}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{013FE8EA-2E13-4F67-8B45-301A21F9230A}" uniqueName="7" name="Column7" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{A44F23FB-1B57-4BAD-8A90-793AEAE99227}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{A44F23FB-1B57-4BAD-8A90-793AEAE99227}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{391F306A-2376-4082-8532-F678D0421560}" uniqueName="9" name="Column9" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{56A8D9D3-5423-4B37-8DE1-61F9D7476A97}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{341E95A2-B316-4E7F-B112-60AA4764A92D}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{7713C1A4-045C-4860-AA84-B62EB45F7079}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{ABB0A4C4-3852-40BA-B7CE-23AE9814C1F4}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{56A8D9D3-5423-4B37-8DE1-61F9D7476A97}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{341E95A2-B316-4E7F-B112-60AA4764A92D}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{7713C1A4-045C-4860-AA84-B62EB45F7079}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{ABB0A4C4-3852-40BA-B7CE-23AE9814C1F4}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="16"/>
     <tableColumn id="14" xr3:uid="{9E300E6A-B933-42E0-AA36-E3CE70E0B2C7}" uniqueName="14" name="Column14" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{546B4149-044A-4A30-AC21-EB4D5C9291C9}" uniqueName="15" name="Column15" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{15769965-D076-49AF-94A8-B11F94FF14AF}" uniqueName="16" name="Column16" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{A1B60577-C90B-4178-8AEB-98E2FF1D3DBC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{A01021F7-E951-4FA8-8629-00A7465EDAA3}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{33C8A4DF-1DD2-4CF2-BD2E-F9EDE1A08DB7}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{A1B60577-C90B-4178-8AEB-98E2FF1D3DBC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{A01021F7-E951-4FA8-8629-00A7465EDAA3}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{33C8A4DF-1DD2-4CF2-BD2E-F9EDE1A08DB7}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="13"/>
     <tableColumn id="20" xr3:uid="{8859C2F8-491C-4F56-9967-2BF47856ECF6}" uniqueName="20" name="Column20" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{E96EE1C9-E9D1-4845-99B1-6716A87D1EEC}" uniqueName="21" name="Column21" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{E9FFB942-8372-4991-8D6C-761CAF5F61CC}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{D65C2AB4-C646-485E-907B-879C8E6E0274}" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{42B5E020-EFFB-401C-A0D9-79F5F25FD208}" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{B44E71B1-E118-4A1F-988F-862432497395}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{E9FFB942-8372-4991-8D6C-761CAF5F61CC}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{D65C2AB4-C646-485E-907B-879C8E6E0274}" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{42B5E020-EFFB-401C-A0D9-79F5F25FD208}" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{B44E71B1-E118-4A1F-988F-862432497395}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="9"/>
     <tableColumn id="26" xr3:uid="{1C968C56-9DB7-4084-84EA-E67357A0763D}" uniqueName="26" name="Column26" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{2173DED5-76CB-49B0-A2A3-4487393A1595}" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{1FFC4DE1-612A-4BDC-837A-674313A7CF3B}" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{07AF2613-5C7C-483B-8C62-C59514B42A31}" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{2173DED5-76CB-49B0-A2A3-4487393A1595}" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{1FFC4DE1-612A-4BDC-837A-674313A7CF3B}" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{07AF2613-5C7C-483B-8C62-C59514B42A31}" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="6"/>
     <tableColumn id="30" xr3:uid="{DD5FA6CF-4341-4B68-B72F-A10C5E271126}" uniqueName="30" name="Column30" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{90286747-44A0-445D-9255-7634C5F35DC5}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{226C2DB5-BD45-42F4-A02C-FD39B134BB9C}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{91C401B6-CE1A-4D91-BFA1-844DDDE64693}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{90286747-44A0-445D-9255-7634C5F35DC5}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{226C2DB5-BD45-42F4-A02C-FD39B134BB9C}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{91C401B6-CE1A-4D91-BFA1-844DDDE64693}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="3"/>
     <tableColumn id="34" xr3:uid="{ECA38CC2-D869-4A32-BB45-DEA3E4CA7BEE}" uniqueName="34" name="Column34" queryTableFieldId="34"/>
     <tableColumn id="35" xr3:uid="{C2B71722-AB86-4EA8-9EE9-73CA3E398669}" uniqueName="35" name="Column35" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{707BC8CD-5A9B-4627-9A28-33993E45A6D9}" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="11"/>
-    <tableColumn id="37" xr3:uid="{C105FDD0-1761-40CE-A5C7-16D0F9A83239}" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{707BC8CD-5A9B-4627-9A28-33993E45A6D9}" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{C105FDD0-1761-40CE-A5C7-16D0F9A83239}" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5123,15 +5163,15 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DAB8BE2-7FF1-45FF-892A-4339606D2AE3}" name="Table_Page004" displayName="Table_Page004" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DEF2BF8-564F-4E7E-8560-01982D71BEC1}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{4CA0BCBD-2473-43D5-965B-BA07298DF7F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{AEB01711-3689-4F3E-8BDB-2F8DDA699575}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{F81F34E1-F226-4921-A3BF-15B24328C40F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{943F69A7-9DA3-4B10-B886-07B015666BC7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{281DCA73-A3B0-4FFA-8ED5-9112224E4F84}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{0768DEE7-93BA-4FF5-B3D6-67BFCB6F7C2A}" uniqueName="7" name="Column7" queryTableFieldId="7" headerRowDxfId="6" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{ADD62DB5-D8A8-429E-9F2E-79B7E4576404}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{60A5F52E-E12F-43CE-8436-467FF050507F}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{0DEF2BF8-564F-4E7E-8560-01982D71BEC1}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{4CA0BCBD-2473-43D5-965B-BA07298DF7F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{AEB01711-3689-4F3E-8BDB-2F8DDA699575}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{F81F34E1-F226-4921-A3BF-15B24328C40F}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{943F69A7-9DA3-4B10-B886-07B015666BC7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{281DCA73-A3B0-4FFA-8ED5-9112224E4F84}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{0768DEE7-93BA-4FF5-B3D6-67BFCB6F7C2A}" uniqueName="7" name="Column7" queryTableFieldId="7" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{ADD62DB5-D8A8-429E-9F2E-79B7E4576404}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{60A5F52E-E12F-43CE-8436-467FF050507F}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5140,15 +5180,15 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E1F41534-B38F-4D75-9DF4-E533B8944EDE}" name="Table_Page005" displayName="Table_Page005" ref="A1:J41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D2E2FDF5-9AF5-4C58-8A3D-A7F2F77E3EF5}" uniqueName="1" name="d" queryTableFieldId="1" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{3842F69B-1A6A-48D6-962F-DBC3ED0DB630}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{72C08FC4-8012-4252-A8C5-E17E8CCF90F8}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{BAD0FF87-B3F9-42F7-B5CF-363FA33437FE}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{8BB8D507-4BD2-412A-BB3E-D4F42AFBD8D9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{CBFE1716-F159-4A8E-842E-5C373EB0A247}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{A9F4410E-D112-4221-8337-5C6A30E9830F}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{146956D8-9F60-4ECB-9C27-77ACBF8BD9C9}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{7AFBA573-D872-453D-9626-3F714677AD8E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{D2E2FDF5-9AF5-4C58-8A3D-A7F2F77E3EF5}" uniqueName="1" name="d" queryTableFieldId="1" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{3842F69B-1A6A-48D6-962F-DBC3ED0DB630}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{72C08FC4-8012-4252-A8C5-E17E8CCF90F8}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{BAD0FF87-B3F9-42F7-B5CF-363FA33437FE}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{8BB8D507-4BD2-412A-BB3E-D4F42AFBD8D9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{CBFE1716-F159-4A8E-842E-5C373EB0A247}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{A9F4410E-D112-4221-8337-5C6A30E9830F}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{146956D8-9F60-4ECB-9C27-77ACBF8BD9C9}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{7AFBA573-D872-453D-9626-3F714677AD8E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="88"/>
     <tableColumn id="10" xr3:uid="{C25A0A15-1C2F-49A0-90AA-3C194972FF00}" uniqueName="10" name="Column10" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5158,15 +5198,15 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{56D9B8D6-E2DB-453B-AB17-F94DD1FA2842}" name="Table_Page006" displayName="Table_Page006" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B327A4D1-5810-4F34-B312-EFB0A67E1E14}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{1E831D7F-1F03-4A2C-9E23-BCD31C52A4EB}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{811A8819-D83D-4EC8-875E-680DC2AF5A55}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{F6E4055B-AAF0-4A48-8688-1CD6738F5392}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{1072A97E-3D54-40C2-9528-10D0DE00DF4A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{7DD5C0F5-2F09-4FB4-BF87-51483CE15B2B}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{903AAE3B-3E4C-4D93-96EA-F939C0386892}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{6F33A67F-A07A-4E1C-908E-9E067244A2A6}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{A9165582-B356-44EA-BCD9-8B803A255286}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{B327A4D1-5810-4F34-B312-EFB0A67E1E14}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{1E831D7F-1F03-4A2C-9E23-BCD31C52A4EB}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{811A8819-D83D-4EC8-875E-680DC2AF5A55}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{F6E4055B-AAF0-4A48-8688-1CD6738F5392}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{1072A97E-3D54-40C2-9528-10D0DE00DF4A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{7DD5C0F5-2F09-4FB4-BF87-51483CE15B2B}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{903AAE3B-3E4C-4D93-96EA-F939C0386892}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{6F33A67F-A07A-4E1C-908E-9E067244A2A6}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{A9165582-B356-44EA-BCD9-8B803A255286}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5175,15 +5215,15 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A31781B7-3BD9-4D92-9F67-73F4BB461AFE}" name="Table_Page007" displayName="Table_Page007" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82887FE5-0993-4397-8127-3F4A5F198484}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{76F1E28E-8DF1-4002-9CE5-3AA897A93921}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{0FD69196-857B-4E7C-9DF1-AE7C6BE4E716}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{7D862EBC-2ACE-4C13-ACF0-2EF790CDACC8}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{9F88981C-5ABA-485B-81F3-F3128DB2AD5A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{BD033002-F66B-4EB0-B46F-901A345018C9}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{78987B86-C851-4D43-84D2-A318B6F1530B}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{98ED8BA9-FADE-48E8-A2C5-B050A8A298D4}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00C32233-12F4-4B9F-B1D6-8D366E22F1D4}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{82887FE5-0993-4397-8127-3F4A5F198484}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{76F1E28E-8DF1-4002-9CE5-3AA897A93921}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{0FD69196-857B-4E7C-9DF1-AE7C6BE4E716}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{7D862EBC-2ACE-4C13-ACF0-2EF790CDACC8}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{9F88981C-5ABA-485B-81F3-F3128DB2AD5A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{BD033002-F66B-4EB0-B46F-901A345018C9}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{78987B86-C851-4D43-84D2-A318B6F1530B}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{98ED8BA9-FADE-48E8-A2C5-B050A8A298D4}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{00C32233-12F4-4B9F-B1D6-8D366E22F1D4}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5192,15 +5232,15 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22187731-945E-4975-ABAC-67C15F9D7B42}" name="Table_Page008" displayName="Table_Page008" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8082FC04-ACD5-4110-B00C-466D0BB8B14B}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{0238BAAD-D33B-46E5-AFC2-35F3BCBA8B77}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{E8ACE457-B260-4402-B008-D432F379E195}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{D0A58D94-7319-42E9-A1C8-E8150EDE6B65}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{B4A0A5D4-507A-409C-AF4E-6454A6CB2094}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{474CDFFA-363C-45F6-BB7A-ECE76E7AB31A}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{826F573B-905F-419A-ACD1-DF8498F07D1B}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{37030C83-5D62-4F3A-9545-F6D16A077420}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{B8BC50A9-066A-4C65-9239-3D9B6224EF85}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{8082FC04-ACD5-4110-B00C-466D0BB8B14B}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{0238BAAD-D33B-46E5-AFC2-35F3BCBA8B77}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{E8ACE457-B260-4402-B008-D432F379E195}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{D0A58D94-7319-42E9-A1C8-E8150EDE6B65}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{B4A0A5D4-507A-409C-AF4E-6454A6CB2094}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{474CDFFA-363C-45F6-BB7A-ECE76E7AB31A}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{826F573B-905F-419A-ACD1-DF8498F07D1B}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{37030C83-5D62-4F3A-9545-F6D16A077420}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{B8BC50A9-066A-4C65-9239-3D9B6224EF85}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5209,15 +5249,15 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CC633E7B-39F1-4F34-A319-6C07EAB47C8A}" name="Table_Page009" displayName="Table_Page009" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EABDCE40-2E26-4876-8BF2-8F4EEC669396}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{58DAF15D-7173-4AB0-8028-5437517CD12E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{312B60DA-F465-4767-8C55-E5813314624F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{5DC1D5E6-E4BF-46C6-AEFC-0C04DDA29008}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{39069470-D521-438D-B370-A8091C7536D7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{30FE368B-57ED-4F93-978F-357DECE7C3BB}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{8D2D8353-0CF9-4646-B25C-C492FA12A057}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{CF416731-8EEB-4AC9-BB66-DCC57C559D3E}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{F79C99CA-366F-4A0B-97CD-7297A9F0DECD}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{EABDCE40-2E26-4876-8BF2-8F4EEC669396}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{58DAF15D-7173-4AB0-8028-5437517CD12E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{312B60DA-F465-4767-8C55-E5813314624F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{5DC1D5E6-E4BF-46C6-AEFC-0C04DDA29008}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{39069470-D521-438D-B370-A8091C7536D7}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{30FE368B-57ED-4F93-978F-357DECE7C3BB}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{8D2D8353-0CF9-4646-B25C-C492FA12A057}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{CF416731-8EEB-4AC9-BB66-DCC57C559D3E}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{F79C99CA-366F-4A0B-97CD-7297A9F0DECD}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5226,15 +5266,15 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3097CF11-A71F-4EE9-A80E-809987B3CBDC}" name="Table_Page010" displayName="Table_Page010" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{01D7937D-D6C0-499F-BCBA-01D29EC112A9}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{CD4D9EE5-B620-4351-8088-3D054E69D4EE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{7AF6F4EA-04ED-4111-B1AF-F3148DB6B817}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{5845AFF6-BB69-4194-824B-8FBAF458E7EF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{EF77D439-D161-4F7A-B602-9D7F9FA84F3F}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{1305A101-6560-4CA8-92D7-27D432599550}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{081BC1DF-BBD8-435F-BE47-597157DAC825}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{D12F7244-0DF3-4C8F-8BDE-6AAE0B4C1FE1}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{444D3020-6EC3-4A81-A922-92D62F1408CF}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{01D7937D-D6C0-499F-BCBA-01D29EC112A9}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{CD4D9EE5-B620-4351-8088-3D054E69D4EE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{7AF6F4EA-04ED-4111-B1AF-F3148DB6B817}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{5845AFF6-BB69-4194-824B-8FBAF458E7EF}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{EF77D439-D161-4F7A-B602-9D7F9FA84F3F}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{1305A101-6560-4CA8-92D7-27D432599550}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{081BC1DF-BBD8-435F-BE47-597157DAC825}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{D12F7244-0DF3-4C8F-8BDE-6AAE0B4C1FE1}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{444D3020-6EC3-4A81-A922-92D62F1408CF}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5243,15 +5283,15 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{09D3806A-9531-482C-9DA9-74FF1D205DBC}" name="Table_Page011" displayName="Table_Page011" ref="A1:I41" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{32E70B3B-1EEF-4434-B8FE-FFD62570CF77}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{BD966A08-B10C-4D0B-A4E0-1055B6A82ECE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{07B9923A-C248-4DA0-834E-EA1CBEDE7407}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{6EAF164C-6574-47F2-B483-914BAB24C4C5}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{060F2FB0-CB2B-4647-8AD8-8FD25CEE732C}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{80154BFB-DB98-41EB-A065-CE3412C74A72}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{39DFC059-DF36-4555-B2D4-0C2C7B7A6B48}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{64FC93E7-C8DD-478A-84D7-24EA57F4E16A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{1F6C0E89-6391-4E80-AC87-B91DD2F45E25}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{32E70B3B-1EEF-4434-B8FE-FFD62570CF77}" uniqueName="1" name="Toronto Regional Real Estate Board" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BD966A08-B10C-4D0B-A4E0-1055B6A82ECE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{07B9923A-C248-4DA0-834E-EA1CBEDE7407}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{6EAF164C-6574-47F2-B483-914BAB24C4C5}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{060F2FB0-CB2B-4647-8AD8-8FD25CEE732C}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{80154BFB-DB98-41EB-A065-CE3412C74A72}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{39DFC059-DF36-4555-B2D4-0C2C7B7A6B48}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{64FC93E7-C8DD-478A-84D7-24EA57F4E16A}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{1F6C0E89-6391-4E80-AC87-B91DD2F45E25}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5574,7 +5614,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6775,7 +6815,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7989,135 +8029,121 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894071CA-E1A5-465B-AEB2-1B9EAD4FA39C}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="35" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <f t="shared" ref="A1:A3" ca="1" si="0">_xlfn.CONCAT(A1,B1,C1)</f>
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
         <v>787</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" t="s">
         <v>788</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q1" t="s">
         <v>789</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="W1" t="s">
         <v>790</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AC1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>792</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>793</v>
       </c>
+      <c r="F2" t="s">
+        <v>794</v>
+      </c>
       <c r="H2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J2" t="s">
+        <v>793</v>
+      </c>
+      <c r="K2" t="s">
         <v>794</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>792</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>793</v>
       </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>794</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>792</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>793</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>794</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>792</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>793</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>794</v>
       </c>
-      <c r="AC2" t="s">
-        <v>792</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>793</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>795</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>796</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>-14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3">
+        <v>0.09</v>
+      </c>
+      <c r="H3" t="s">
         <v>797</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>798</v>
-      </c>
-      <c r="G3">
-        <v>-14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3">
-        <v>0.09</v>
       </c>
       <c r="J3" t="s">
         <v>799</v>
@@ -8125,2988 +8151,2865 @@
       <c r="K3" t="s">
         <v>800</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>0.03</v>
+      </c>
+      <c r="O3" t="s">
         <v>801</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>802</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>0.03</v>
       </c>
       <c r="Q3" t="s">
         <v>803</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3">
+        <v>-15</v>
+      </c>
+      <c r="T3" t="s">
         <v>804</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>805</v>
       </c>
-      <c r="T3">
+      <c r="W3" t="s">
+        <v>806</v>
+      </c>
+      <c r="X3">
+        <v>-11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>807</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AB3">
+        <v>0.7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>810</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4">
+        <v>0.06</v>
+      </c>
+      <c r="H4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I4" t="s">
+        <v>815</v>
+      </c>
+      <c r="J4" t="s">
+        <v>816</v>
+      </c>
+      <c r="K4" t="s">
+        <v>817</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0.01</v>
+      </c>
+      <c r="O4" t="s">
+        <v>818</v>
+      </c>
+      <c r="P4" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>820</v>
+      </c>
+      <c r="R4">
+        <v>-12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>821</v>
+      </c>
+      <c r="U4" t="s">
+        <v>822</v>
+      </c>
+      <c r="W4" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB4">
+        <v>0.4</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>826</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H5" t="s">
+        <v>833</v>
+      </c>
+      <c r="I5" t="s">
+        <v>834</v>
+      </c>
+      <c r="J5" t="s">
+        <v>835</v>
+      </c>
+      <c r="K5" t="s">
+        <v>836</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.09</v>
+      </c>
+      <c r="O5" t="s">
+        <v>837</v>
+      </c>
+      <c r="P5" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>839</v>
+      </c>
+      <c r="S5">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="T5" t="s">
+        <v>840</v>
+      </c>
+      <c r="U5" t="s">
+        <v>841</v>
+      </c>
+      <c r="W5" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>843</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>844</v>
+      </c>
+      <c r="AB5">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>846</v>
+      </c>
+      <c r="AG5">
+        <v>4.7</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C6" t="s">
+        <v>850</v>
+      </c>
+      <c r="E6">
         <v>-15</v>
       </c>
-      <c r="V3" t="s">
-        <v>806</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>851</v>
+      </c>
+      <c r="I6" t="s">
+        <v>852</v>
+      </c>
+      <c r="J6" t="s">
+        <v>853</v>
+      </c>
+      <c r="K6" t="s">
+        <v>854</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0.06</v>
+      </c>
+      <c r="O6" t="s">
+        <v>855</v>
+      </c>
+      <c r="P6" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>857</v>
+      </c>
+      <c r="R6">
+        <v>-18</v>
+      </c>
+      <c r="T6" t="s">
+        <v>858</v>
+      </c>
+      <c r="U6" t="s">
+        <v>859</v>
+      </c>
+      <c r="V6" t="s">
+        <v>860</v>
+      </c>
+      <c r="W6" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>861</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>862</v>
+      </c>
+      <c r="AB6">
+        <v>0.6</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>863</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>864</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C7" t="s">
+        <v>868</v>
+      </c>
+      <c r="D7" t="s">
+        <v>827</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="s">
+        <v>869</v>
+      </c>
+      <c r="J7" t="s">
+        <v>870</v>
+      </c>
+      <c r="K7" t="s">
+        <v>817</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>872</v>
+      </c>
+      <c r="R7">
+        <v>-10</v>
+      </c>
+      <c r="T7" t="s">
+        <v>873</v>
+      </c>
+      <c r="U7" t="s">
+        <v>874</v>
+      </c>
+      <c r="W7" t="s">
+        <v>875</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB7">
+        <v>0.7</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>878</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>827</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" t="s">
+        <v>882</v>
+      </c>
+      <c r="D8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" t="s">
+        <v>884</v>
+      </c>
+      <c r="I8" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" t="s">
+        <v>886</v>
+      </c>
+      <c r="K8" t="s">
+        <v>887</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.08</v>
+      </c>
+      <c r="O8" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>889</v>
+      </c>
+      <c r="R8">
+        <v>-11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>890</v>
+      </c>
+      <c r="U8" t="s">
+        <v>891</v>
+      </c>
+      <c r="W8" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>893</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>894</v>
+      </c>
+      <c r="AB8">
+        <v>0.1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>883</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>898</v>
+      </c>
+      <c r="C9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D9" t="s">
+        <v>810</v>
+      </c>
+      <c r="F9" t="s">
+        <v>900</v>
+      </c>
+      <c r="H9" t="s">
+        <v>901</v>
+      </c>
+      <c r="I9" t="s">
+        <v>902</v>
+      </c>
+      <c r="J9" t="s">
+        <v>903</v>
+      </c>
+      <c r="K9" t="s">
+        <v>904</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.09</v>
+      </c>
+      <c r="O9" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>906</v>
+      </c>
+      <c r="R9">
+        <v>-11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>907</v>
+      </c>
+      <c r="U9" t="s">
+        <v>908</v>
+      </c>
+      <c r="W9" t="s">
+        <v>909</v>
+      </c>
+      <c r="X9">
+        <v>6.2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>910</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>911</v>
+      </c>
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>912</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B10" t="s">
+        <v>905</v>
+      </c>
+      <c r="C10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D10" t="s">
+        <v>846</v>
+      </c>
+      <c r="F10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H10" t="s">
+        <v>918</v>
+      </c>
+      <c r="I10" t="s">
+        <v>919</v>
+      </c>
+      <c r="J10" t="s">
+        <v>920</v>
+      </c>
+      <c r="K10" t="s">
+        <v>904</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0.03</v>
+      </c>
+      <c r="O10" t="s">
+        <v>921</v>
+      </c>
+      <c r="P10" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>923</v>
+      </c>
+      <c r="S10">
+        <v>-5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>924</v>
+      </c>
+      <c r="U10" t="s">
+        <v>925</v>
+      </c>
+      <c r="V10" t="s">
+        <v>926</v>
+      </c>
+      <c r="W10" t="s">
+        <v>927</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>928</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>929</v>
+      </c>
+      <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>930</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B11" t="s">
+        <v>933</v>
+      </c>
+      <c r="C11" t="s">
+        <v>934</v>
+      </c>
+      <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11">
+        <v>0.08</v>
+      </c>
+      <c r="H11" t="s">
+        <v>935</v>
+      </c>
+      <c r="I11" t="s">
+        <v>936</v>
+      </c>
+      <c r="J11" t="s">
+        <v>937</v>
+      </c>
+      <c r="K11" t="s">
+        <v>904</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>938</v>
+      </c>
+      <c r="P11" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>940</v>
+      </c>
+      <c r="S11">
+        <v>-6.9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>941</v>
+      </c>
+      <c r="U11" t="s">
+        <v>942</v>
+      </c>
+      <c r="V11" t="s">
+        <v>885</v>
+      </c>
+      <c r="W11" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>944</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>945</v>
+      </c>
+      <c r="AB11">
+        <v>0.3</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B12" t="s">
+        <v>950</v>
+      </c>
+      <c r="C12" t="s">
+        <v>951</v>
+      </c>
+      <c r="E12">
+        <v>-12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>952</v>
+      </c>
+      <c r="I12" t="s">
+        <v>953</v>
+      </c>
+      <c r="J12" t="s">
+        <v>954</v>
+      </c>
+      <c r="K12" t="s">
+        <v>854</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>955</v>
+      </c>
+      <c r="P12" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>927</v>
+      </c>
+      <c r="R12">
+        <v>-10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>957</v>
+      </c>
+      <c r="U12" t="s">
+        <v>958</v>
+      </c>
+      <c r="W12" t="s">
+        <v>959</v>
+      </c>
+      <c r="X12">
+        <v>0.3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>960</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>961</v>
+      </c>
+      <c r="AB12">
+        <v>0.6</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>962</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>864</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B13" t="s">
+        <v>965</v>
+      </c>
+      <c r="C13" t="s">
+        <v>966</v>
+      </c>
+      <c r="D13" t="s">
+        <v>827</v>
+      </c>
+      <c r="E13">
+        <v>-17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>967</v>
+      </c>
+      <c r="I13" t="s">
+        <v>968</v>
+      </c>
+      <c r="J13" t="s">
+        <v>969</v>
+      </c>
+      <c r="K13" t="s">
+        <v>970</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>972</v>
+      </c>
+      <c r="R13">
+        <v>-18</v>
+      </c>
+      <c r="T13" t="s">
+        <v>973</v>
+      </c>
+      <c r="U13" t="s">
+        <v>974</v>
+      </c>
+      <c r="W13" t="s">
+        <v>975</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB13">
+        <v>0.5</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>978</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>846</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B14" t="s">
+        <v>981</v>
+      </c>
+      <c r="C14" t="s">
+        <v>982</v>
+      </c>
+      <c r="D14" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14">
+        <v>-14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14">
+        <v>0.02</v>
+      </c>
+      <c r="H14" t="s">
+        <v>888</v>
+      </c>
+      <c r="J14" t="s">
+        <v>983</v>
+      </c>
+      <c r="K14" t="s">
+        <v>984</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0.04</v>
+      </c>
+      <c r="O14" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>986</v>
+      </c>
+      <c r="R14">
+        <v>-14</v>
+      </c>
+      <c r="T14" t="s">
+        <v>987</v>
+      </c>
+      <c r="U14" t="s">
+        <v>988</v>
+      </c>
+      <c r="W14" t="s">
+        <v>989</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>990</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>991</v>
+      </c>
+      <c r="AB14">
+        <v>0.8</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>846</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>994</v>
+      </c>
+      <c r="C15" t="s">
+        <v>995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>846</v>
+      </c>
+      <c r="F15" t="s">
+        <v>996</v>
+      </c>
+      <c r="H15" t="s">
+        <v>997</v>
+      </c>
+      <c r="I15" t="s">
+        <v>998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>927</v>
+      </c>
+      <c r="K15" t="s">
+        <v>817</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>0.03</v>
+      </c>
+      <c r="O15" t="s">
+        <v>999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R15">
+        <v>-15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB15">
+        <v>0.5</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E16">
+        <v>-10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16">
+        <v>0.09</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M16">
+        <v>0.01</v>
+      </c>
+      <c r="O16" t="s">
+        <v>884</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>853</v>
+      </c>
+      <c r="R16">
+        <v>-11</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="V16" t="s">
+        <v>798</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="X16">
+        <v>-16</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AB16">
+        <v>0.6</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>947</v>
+      </c>
+      <c r="AF16">
+        <v>-10</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J17" t="s">
+        <v>927</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R17">
+        <v>-10</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E18">
+        <v>-12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18">
+        <v>0.04</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>0.06</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R18">
+        <v>-10</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AB18">
+        <v>0.6</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>883</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E19">
+        <v>-10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19">
+        <v>0.06</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I19" t="s">
+        <v>852</v>
+      </c>
+      <c r="J19" t="s">
+        <v>835</v>
+      </c>
+      <c r="K19" t="s">
+        <v>904</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>0.05</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S19">
+        <v>-6.8</v>
+      </c>
+      <c r="T19" t="s">
+        <v>960</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AB19">
+        <v>0.8</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S20">
+        <v>-3.3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>941</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J21" t="s">
+        <v>937</v>
+      </c>
+      <c r="K21" t="s">
+        <v>887</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>0.02</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R21">
+        <v>-14</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AB21">
+        <v>0.1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E22">
+        <v>-17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22">
+        <v>0.02</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0.05</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R22">
+        <v>-18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1105</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="X22">
+        <v>-14</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AB22">
+        <v>0.2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>827</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J23" t="s">
+        <v>969</v>
+      </c>
+      <c r="K23" t="s">
+        <v>904</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>0.06</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R23">
+        <v>-12</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X23">
+        <v>-12</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AB23">
+        <v>0.2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E24">
+        <v>-17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24">
+        <v>0.04</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K24" t="s">
+        <v>970</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R24">
+        <v>-19</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>862</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>883</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K25" t="s">
+        <v>904</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0.04</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R25">
+        <v>-13</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>864</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K26" t="s">
+        <v>836</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>0.04</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R26">
+        <v>-10</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AB26">
+        <v>0.1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>864</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M27">
+        <v>0.08</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P27" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>937</v>
+      </c>
+      <c r="R27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T27" t="s">
         <v>807</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="U27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X27">
+        <v>-12</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AB27">
+        <v>0.1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>864</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>927</v>
+      </c>
+      <c r="K28" t="s">
+        <v>836</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>0.05</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S28">
+        <v>-8.4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>847</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1184</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="X28">
+        <v>-13</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>910</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AB28">
+        <v>0.2</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AG28">
+        <v>1.2</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M29">
+        <v>0.02</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S29">
+        <v>-6.1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB29">
+        <v>0.3</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E30">
+        <v>-12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>334</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>998</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>0.06</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1209</v>
+      </c>
+      <c r="R30">
+        <v>-12</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1210</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA30" t="s">
         <v>808</v>
       </c>
-      <c r="Z3">
+      <c r="AB30">
+        <v>0.4</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>810</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E31">
+        <v>-14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>800</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.01</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P31" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R31">
+        <v>-15</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB31">
+        <v>0.9</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D32" t="s">
+        <v>864</v>
+      </c>
+      <c r="E32">
+        <v>-14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32">
+        <v>0.02</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>854</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>0.03</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R32">
+        <v>-14</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1236</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AB32">
+        <v>0.8</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C33" t="s">
+        <v>868</v>
+      </c>
+      <c r="D33" t="s">
+        <v>846</v>
+      </c>
+      <c r="E33">
+        <v>-13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>335</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I33" t="s">
+        <v>939</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R33">
+        <v>-17</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB33">
+        <v>0.2</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AG33">
+        <v>0.3</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E34">
+        <v>-18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>343</v>
+      </c>
+      <c r="G34">
+        <v>0.06</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I34" t="s">
+        <v>968</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>0.04</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R34">
+        <v>-20</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AB34">
+        <v>0.6</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D35" t="s">
+        <v>913</v>
+      </c>
+      <c r="E35">
+        <v>-12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35">
+        <v>0.09</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I35" t="s">
+        <v>902</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.09</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R35">
+        <v>-17</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1273</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1274</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AB35">
+        <v>0.6</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D36" t="s">
+        <v>913</v>
+      </c>
+      <c r="E36">
+        <v>-18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36">
+        <v>0.03</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I36" t="s">
+        <v>968</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K36" t="s">
+        <v>970</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0.03</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1282</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1283</v>
+      </c>
+      <c r="R36">
+        <v>-19</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1284</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1285</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D37" t="s">
+        <v>913</v>
+      </c>
+      <c r="E37">
         <v>-11</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37">
+        <v>0.05</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K37" t="s">
+        <v>854</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>0.01</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1295</v>
+      </c>
+      <c r="R37">
+        <v>-15</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1297</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AB37">
+        <v>0.3</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>810</v>
+      </c>
+      <c r="AG37">
+        <v>0.2</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E38">
+        <v>-22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I38" t="s">
+        <v>922</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>0.02</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1308</v>
+      </c>
+      <c r="R38">
+        <v>-27</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1309</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1310</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AB38">
+        <v>0.9</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>883</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D39" t="s">
+        <v>913</v>
+      </c>
+      <c r="E39">
+        <v>-13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39">
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>954</v>
+      </c>
+      <c r="K39" t="s">
+        <v>800</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1321</v>
+      </c>
+      <c r="R39">
+        <v>-16</v>
+      </c>
+      <c r="T39" t="s">
+        <v>873</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1322</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X39">
+        <v>-15</v>
+      </c>
+      <c r="Y39" t="s">
         <v>314</v>
       </c>
-      <c r="AB3" t="s">
-        <v>809</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>810</v>
-      </c>
-      <c r="AD3">
+      <c r="Z39" t="s">
+        <v>960</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AB39">
         <v>0.7</v>
       </c>
-      <c r="AE3" t="s">
-        <v>811</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>812</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D4" t="s">
-        <v>816</v>
-      </c>
-      <c r="E4" t="s">
-        <v>817</v>
-      </c>
-      <c r="G4">
-        <v>-10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4">
-        <v>0.06</v>
-      </c>
-      <c r="J4" t="s">
-        <v>818</v>
-      </c>
-      <c r="K4" t="s">
-        <v>819</v>
-      </c>
-      <c r="L4" t="s">
-        <v>820</v>
-      </c>
-      <c r="M4" t="s">
-        <v>821</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>0.01</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>822</v>
-      </c>
-      <c r="R4" t="s">
-        <v>823</v>
-      </c>
-      <c r="S4" t="s">
-        <v>824</v>
-      </c>
-      <c r="T4">
-        <v>-12</v>
-      </c>
-      <c r="V4" t="s">
-        <v>825</v>
-      </c>
-      <c r="W4" t="s">
-        <v>826</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>827</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AD4">
-        <v>0.4</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>830</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>831</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D5" t="s">
-        <v>834</v>
-      </c>
-      <c r="E5" t="s">
-        <v>835</v>
-      </c>
-      <c r="H5" t="s">
-        <v>836</v>
-      </c>
-      <c r="J5" t="s">
-        <v>837</v>
-      </c>
-      <c r="K5" t="s">
-        <v>838</v>
-      </c>
-      <c r="L5" t="s">
-        <v>839</v>
-      </c>
-      <c r="M5" t="s">
-        <v>840</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0.09</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>841</v>
-      </c>
-      <c r="R5" t="s">
-        <v>842</v>
-      </c>
-      <c r="S5" t="s">
-        <v>843</v>
-      </c>
-      <c r="U5">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="V5" t="s">
-        <v>844</v>
-      </c>
-      <c r="W5" t="s">
-        <v>845</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>846</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>847</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>848</v>
-      </c>
-      <c r="AD5">
-        <v>0.5</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>849</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>850</v>
-      </c>
-      <c r="AI5">
-        <v>4.7</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D6" t="s">
-        <v>853</v>
-      </c>
-      <c r="E6" t="s">
-        <v>854</v>
-      </c>
-      <c r="G6">
-        <v>-15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>855</v>
-      </c>
-      <c r="K6" t="s">
-        <v>856</v>
-      </c>
-      <c r="L6" t="s">
-        <v>857</v>
-      </c>
-      <c r="M6" t="s">
-        <v>858</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>859</v>
-      </c>
-      <c r="R6" t="s">
-        <v>860</v>
-      </c>
-      <c r="S6" t="s">
-        <v>861</v>
-      </c>
-      <c r="T6">
-        <v>-18</v>
-      </c>
-      <c r="V6" t="s">
-        <v>862</v>
-      </c>
-      <c r="W6" t="s">
-        <v>863</v>
-      </c>
-      <c r="X6" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>801</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>865</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>866</v>
-      </c>
-      <c r="AD6">
-        <v>0.6</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>867</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>868</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D7" t="s">
-        <v>871</v>
-      </c>
-      <c r="E7" t="s">
-        <v>872</v>
-      </c>
-      <c r="F7" t="s">
-        <v>831</v>
-      </c>
-      <c r="G7">
-        <v>-11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7">
-        <v>0.05</v>
-      </c>
-      <c r="J7" t="s">
-        <v>873</v>
-      </c>
-      <c r="L7" t="s">
-        <v>874</v>
-      </c>
-      <c r="M7" t="s">
-        <v>821</v>
-      </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>875</v>
-      </c>
-      <c r="S7" t="s">
-        <v>876</v>
-      </c>
-      <c r="T7">
-        <v>-10</v>
-      </c>
-      <c r="V7" t="s">
-        <v>877</v>
-      </c>
-      <c r="W7" t="s">
-        <v>878</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>880</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>881</v>
-      </c>
-      <c r="AD7">
-        <v>0.7</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>882</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>831</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D8" t="s">
-        <v>885</v>
-      </c>
-      <c r="E8" t="s">
-        <v>886</v>
-      </c>
-      <c r="F8" t="s">
-        <v>887</v>
-      </c>
-      <c r="G8">
-        <v>-12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I8">
-        <v>0.05</v>
-      </c>
-      <c r="J8" t="s">
-        <v>888</v>
-      </c>
-      <c r="K8" t="s">
-        <v>889</v>
-      </c>
-      <c r="L8" t="s">
-        <v>890</v>
-      </c>
-      <c r="M8" t="s">
-        <v>891</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.08</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>892</v>
-      </c>
-      <c r="S8" t="s">
-        <v>893</v>
-      </c>
-      <c r="T8">
-        <v>-11</v>
-      </c>
-      <c r="V8" t="s">
-        <v>894</v>
-      </c>
-      <c r="W8" t="s">
-        <v>895</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>896</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>897</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>898</v>
-      </c>
-      <c r="AD8">
-        <v>0.1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>899</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>887</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D9" t="s">
-        <v>902</v>
-      </c>
-      <c r="E9" t="s">
-        <v>903</v>
-      </c>
-      <c r="F9" t="s">
-        <v>812</v>
-      </c>
-      <c r="H9" t="s">
-        <v>904</v>
-      </c>
-      <c r="J9" t="s">
-        <v>905</v>
-      </c>
-      <c r="K9" t="s">
-        <v>906</v>
-      </c>
-      <c r="L9" t="s">
-        <v>907</v>
-      </c>
-      <c r="M9" t="s">
-        <v>908</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0.09</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>909</v>
-      </c>
-      <c r="S9" t="s">
-        <v>910</v>
-      </c>
-      <c r="T9">
-        <v>-11</v>
-      </c>
-      <c r="V9" t="s">
-        <v>911</v>
-      </c>
-      <c r="W9" t="s">
-        <v>912</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>913</v>
-      </c>
-      <c r="Z9">
-        <v>6.2</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>914</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>915</v>
-      </c>
-      <c r="AD9">
-        <v>0.5</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>916</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>917</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D10" t="s">
-        <v>909</v>
-      </c>
-      <c r="E10" t="s">
-        <v>920</v>
-      </c>
-      <c r="F10" t="s">
-        <v>850</v>
-      </c>
-      <c r="H10" t="s">
-        <v>921</v>
-      </c>
-      <c r="J10" t="s">
-        <v>922</v>
-      </c>
-      <c r="K10" t="s">
-        <v>923</v>
-      </c>
-      <c r="L10" t="s">
-        <v>924</v>
-      </c>
-      <c r="M10" t="s">
-        <v>908</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>0.03</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>925</v>
-      </c>
-      <c r="R10" t="s">
-        <v>926</v>
-      </c>
-      <c r="S10" t="s">
-        <v>927</v>
-      </c>
-      <c r="U10">
-        <v>-5</v>
-      </c>
-      <c r="V10" t="s">
-        <v>928</v>
-      </c>
-      <c r="W10" t="s">
-        <v>929</v>
-      </c>
-      <c r="X10" t="s">
-        <v>930</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>931</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>932</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>933</v>
-      </c>
-      <c r="AD10">
-        <v>0.8</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>934</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>917</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D11" t="s">
-        <v>937</v>
-      </c>
-      <c r="E11" t="s">
-        <v>938</v>
-      </c>
-      <c r="G11">
-        <v>-12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>341</v>
-      </c>
-      <c r="I11">
-        <v>0.08</v>
-      </c>
-      <c r="J11" t="s">
-        <v>939</v>
-      </c>
-      <c r="K11" t="s">
-        <v>940</v>
-      </c>
-      <c r="L11" t="s">
-        <v>941</v>
-      </c>
-      <c r="M11" t="s">
-        <v>908</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>942</v>
-      </c>
-      <c r="R11" t="s">
-        <v>943</v>
-      </c>
-      <c r="S11" t="s">
-        <v>944</v>
-      </c>
-      <c r="U11">
-        <v>-6.9</v>
-      </c>
-      <c r="V11" t="s">
-        <v>945</v>
-      </c>
-      <c r="W11" t="s">
-        <v>946</v>
-      </c>
-      <c r="X11" t="s">
-        <v>889</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>947</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>948</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>949</v>
-      </c>
-      <c r="AD11">
-        <v>0.3</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>950</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>951</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D12" t="s">
-        <v>954</v>
-      </c>
-      <c r="E12" t="s">
-        <v>955</v>
-      </c>
-      <c r="G12">
-        <v>-12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>956</v>
-      </c>
-      <c r="K12" t="s">
-        <v>957</v>
-      </c>
-      <c r="L12" t="s">
-        <v>958</v>
-      </c>
-      <c r="M12" t="s">
-        <v>858</v>
-      </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>959</v>
-      </c>
-      <c r="R12" t="s">
-        <v>960</v>
-      </c>
-      <c r="S12" t="s">
-        <v>931</v>
-      </c>
-      <c r="T12">
-        <v>-10</v>
-      </c>
-      <c r="V12" t="s">
-        <v>961</v>
-      </c>
-      <c r="W12" t="s">
-        <v>962</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>963</v>
-      </c>
-      <c r="Z12">
-        <v>0.3</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>964</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>965</v>
-      </c>
-      <c r="AD12">
-        <v>0.6</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>966</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>868</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="D13" t="s">
-        <v>969</v>
-      </c>
-      <c r="E13" t="s">
-        <v>970</v>
-      </c>
-      <c r="F13" t="s">
-        <v>831</v>
-      </c>
-      <c r="G13">
-        <v>-17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>341</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>971</v>
-      </c>
-      <c r="K13" t="s">
-        <v>972</v>
-      </c>
-      <c r="L13" t="s">
-        <v>973</v>
-      </c>
-      <c r="M13" t="s">
-        <v>974</v>
-      </c>
-      <c r="N13">
-        <v>8</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>975</v>
-      </c>
-      <c r="S13" t="s">
-        <v>976</v>
-      </c>
-      <c r="T13">
-        <v>-18</v>
-      </c>
-      <c r="V13" t="s">
-        <v>977</v>
-      </c>
-      <c r="W13" t="s">
-        <v>978</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>979</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>980</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>981</v>
-      </c>
-      <c r="AD13">
-        <v>0.5</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>850</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="D14" t="s">
-        <v>985</v>
-      </c>
-      <c r="E14" t="s">
-        <v>986</v>
-      </c>
-      <c r="F14" t="s">
-        <v>850</v>
-      </c>
-      <c r="G14">
-        <v>-14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>313</v>
-      </c>
-      <c r="I14">
-        <v>0.02</v>
-      </c>
-      <c r="J14" t="s">
-        <v>892</v>
-      </c>
-      <c r="L14" t="s">
-        <v>987</v>
-      </c>
-      <c r="M14" t="s">
-        <v>988</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>0.04</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>989</v>
-      </c>
-      <c r="S14" t="s">
-        <v>990</v>
-      </c>
-      <c r="T14">
-        <v>-14</v>
-      </c>
-      <c r="V14" t="s">
-        <v>991</v>
-      </c>
-      <c r="W14" t="s">
-        <v>992</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>993</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>994</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>995</v>
-      </c>
-      <c r="AD14">
-        <v>0.8</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>996</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>850</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" t="s">
-        <v>999</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>850</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L15" t="s">
-        <v>931</v>
-      </c>
-      <c r="M15" t="s">
-        <v>821</v>
-      </c>
-      <c r="N15">
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <v>0.03</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1005</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1006</v>
-      </c>
-      <c r="T15">
-        <v>-15</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1007</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="AC39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AD39" t="s">
         <v>1008</v>
       </c>
-      <c r="Y15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AD15">
-        <v>0.5</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G16">
-        <v>-10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>343</v>
-      </c>
-      <c r="I16">
-        <v>0.09</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="AG39">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="s">
         <v>1020</v>
       </c>
-      <c r="O16">
-        <v>0.01</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>888</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S16" t="s">
-        <v>857</v>
-      </c>
-      <c r="T16">
-        <v>-11</v>
-      </c>
-      <c r="V16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="W16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="X16" t="s">
-        <v>800</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Z16">
-        <v>-16</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AD16">
-        <v>0.6</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>951</v>
-      </c>
-      <c r="AH16">
-        <v>-10</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L17" t="s">
-        <v>931</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="S17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="T17">
-        <v>-10</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G18">
-        <v>-12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18">
-        <v>0.04</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>0.06</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="T18">
-        <v>-10</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AD18">
-        <v>0.6</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>887</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G19">
-        <v>-10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19">
-        <v>0.06</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K19" t="s">
-        <v>856</v>
-      </c>
-      <c r="L19" t="s">
-        <v>839</v>
-      </c>
-      <c r="M19" t="s">
-        <v>908</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="P19">
-        <v>0.05</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>1059</v>
-      </c>
-      <c r="R19" t="s">
-        <v>1060</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U19">
-        <v>-6.8</v>
-      </c>
-      <c r="V19" t="s">
-        <v>964</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AD19">
-        <v>0.8</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>917</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1076</v>
-      </c>
-      <c r="U20">
-        <v>-3.3</v>
-      </c>
-      <c r="V20" t="s">
-        <v>945</v>
-      </c>
-      <c r="W20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>951</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L21" t="s">
-        <v>941</v>
-      </c>
-      <c r="M21" t="s">
-        <v>891</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>0.02</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1089</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1090</v>
-      </c>
-      <c r="T21">
-        <v>-14</v>
-      </c>
-      <c r="V21" t="s">
-        <v>1091</v>
-      </c>
-      <c r="W21" t="s">
-        <v>1092</v>
-      </c>
-      <c r="X21" t="s">
-        <v>1093</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AD21">
-        <v>0.1</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>951</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G22">
-        <v>-17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>343</v>
-      </c>
-      <c r="I22">
-        <v>0.02</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1103</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0.05</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R22" t="s">
-        <v>1106</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1107</v>
-      </c>
-      <c r="T22">
-        <v>-18</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1108</v>
-      </c>
-      <c r="W22" t="s">
-        <v>1109</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>1111</v>
-      </c>
-      <c r="Z22">
-        <v>-14</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AD22">
-        <v>0.2</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>831</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1120</v>
-      </c>
-      <c r="L23" t="s">
-        <v>973</v>
-      </c>
-      <c r="M23" t="s">
-        <v>908</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="P23">
-        <v>0.06</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>1121</v>
-      </c>
-      <c r="R23" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1123</v>
-      </c>
-      <c r="T23">
-        <v>-12</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1124</v>
-      </c>
-      <c r="W23" t="s">
-        <v>1125</v>
-      </c>
-      <c r="X23" t="s">
-        <v>1126</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Z23">
-        <v>-12</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>945</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD23">
-        <v>0.2</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>887</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G24">
-        <v>-17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24">
-        <v>0.04</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L24" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M24" t="s">
-        <v>974</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1134</v>
-      </c>
-      <c r="R24" t="s">
-        <v>1135</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T24">
-        <v>-19</v>
-      </c>
-      <c r="V24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="W24" t="s">
-        <v>1137</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>1138</v>
-      </c>
-      <c r="Z24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>844</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>866</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>887</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1145</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M25" t="s">
-        <v>908</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>0.04</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1146</v>
-      </c>
-      <c r="R25" t="s">
-        <v>1147</v>
-      </c>
-      <c r="S25" t="s">
-        <v>1148</v>
-      </c>
-      <c r="T25">
-        <v>-13</v>
-      </c>
-      <c r="V25" t="s">
-        <v>1037</v>
-      </c>
-      <c r="W25" t="s">
-        <v>1149</v>
-      </c>
-      <c r="X25" t="s">
-        <v>1150</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD25">
-        <v>0.5</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>868</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1157</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M26" t="s">
-        <v>840</v>
-      </c>
-      <c r="N26">
-        <v>8</v>
-      </c>
-      <c r="P26">
-        <v>0.04</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1158</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1159</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1160</v>
-      </c>
-      <c r="T26">
-        <v>-10</v>
-      </c>
-      <c r="V26" t="s">
-        <v>1161</v>
-      </c>
-      <c r="W26" t="s">
-        <v>1162</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AD26">
-        <v>0.1</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>868</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1172</v>
-      </c>
-      <c r="L27" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O27">
-        <v>0.08</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R27" t="s">
-        <v>957</v>
-      </c>
-      <c r="S27" t="s">
-        <v>941</v>
-      </c>
-      <c r="T27">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V27" t="s">
-        <v>809</v>
-      </c>
-      <c r="W27" t="s">
-        <v>1176</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Z27">
-        <v>-12</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>945</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AD27">
-        <v>0.1</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F28" t="s">
-        <v>868</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="L28" t="s">
-        <v>931</v>
-      </c>
-      <c r="M28" t="s">
-        <v>840</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>0.05</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>1186</v>
-      </c>
-      <c r="R28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="S28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="U28">
-        <v>-8.4</v>
-      </c>
-      <c r="V28" t="s">
-        <v>851</v>
-      </c>
-      <c r="W28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Z28">
-        <v>-13</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>914</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AD28">
-        <v>0.2</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AI28">
-        <v>1.2</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K29" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O29">
-        <v>0.02</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="R29" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S29" t="s">
-        <v>1136</v>
-      </c>
-      <c r="U29">
-        <v>-6.1</v>
-      </c>
-      <c r="V29" t="s">
-        <v>1193</v>
-      </c>
-      <c r="W29" t="s">
-        <v>1203</v>
-      </c>
-      <c r="X29" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>981</v>
-      </c>
-      <c r="AD29">
-        <v>0.3</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G30">
-        <v>-12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>334</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L30" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N30">
-        <v>7</v>
-      </c>
-      <c r="P30">
-        <v>0.06</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>1213</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1214</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1215</v>
-      </c>
-      <c r="T30">
-        <v>-12</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1216</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X30" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>810</v>
-      </c>
-      <c r="AD30">
-        <v>0.4</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>812</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G31">
-        <v>-14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1226</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1227</v>
-      </c>
-      <c r="M31" t="s">
-        <v>802</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0.01</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>1228</v>
-      </c>
-      <c r="R31" t="s">
-        <v>860</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1229</v>
-      </c>
-      <c r="T31">
-        <v>-15</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AD31">
-        <v>0.9</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F32" t="s">
-        <v>868</v>
-      </c>
-      <c r="G32">
-        <v>-14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>267</v>
-      </c>
-      <c r="I32">
-        <v>0.02</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M32" t="s">
-        <v>858</v>
-      </c>
-      <c r="N32">
-        <v>5</v>
-      </c>
-      <c r="P32">
-        <v>0.03</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>1239</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1240</v>
-      </c>
-      <c r="T32">
-        <v>-14</v>
-      </c>
-      <c r="V32" t="s">
-        <v>1241</v>
-      </c>
-      <c r="W32" t="s">
-        <v>1242</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AD32">
-        <v>0.8</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>917</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E33" t="s">
-        <v>872</v>
-      </c>
-      <c r="F33" t="s">
-        <v>850</v>
-      </c>
-      <c r="G33">
-        <v>-13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K33" t="s">
-        <v>943</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N33">
-        <v>6</v>
-      </c>
-      <c r="P33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>1251</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1252</v>
-      </c>
-      <c r="T33">
-        <v>-17</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1253</v>
-      </c>
-      <c r="W33" t="s">
-        <v>1254</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AD33">
-        <v>0.2</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AI33">
-        <v>0.3</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G34">
-        <v>-18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>343</v>
-      </c>
-      <c r="I34">
-        <v>0.06</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K34" t="s">
-        <v>972</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N34">
-        <v>8</v>
-      </c>
-      <c r="P34">
-        <v>0.04</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>1264</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1265</v>
-      </c>
-      <c r="T34">
-        <v>-20</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1266</v>
-      </c>
-      <c r="W34" t="s">
-        <v>1267</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AD34">
-        <v>0.6</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>917</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F35" t="s">
-        <v>917</v>
-      </c>
-      <c r="G35">
-        <v>-12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35">
-        <v>0.09</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K35" t="s">
-        <v>906</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0.09</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>1277</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1278</v>
-      </c>
-      <c r="T35">
-        <v>-17</v>
-      </c>
-      <c r="V35" t="s">
-        <v>1279</v>
-      </c>
-      <c r="W35" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>1281</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>1282</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AD35">
-        <v>0.6</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F36" t="s">
-        <v>917</v>
-      </c>
-      <c r="G36">
-        <v>-18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>341</v>
-      </c>
-      <c r="I36">
-        <v>0.03</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K36" t="s">
-        <v>972</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M36" t="s">
-        <v>974</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0.03</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>1288</v>
-      </c>
-      <c r="S36" t="s">
-        <v>1289</v>
-      </c>
-      <c r="T36">
-        <v>-19</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1290</v>
-      </c>
-      <c r="W36" t="s">
-        <v>1291</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F37" t="s">
-        <v>917</v>
-      </c>
-      <c r="G37">
-        <v>-11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>341</v>
-      </c>
-      <c r="I37">
-        <v>0.05</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1299</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M37" t="s">
-        <v>858</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="P37">
-        <v>0.01</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>1300</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1301</v>
-      </c>
-      <c r="T37">
-        <v>-15</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1302</v>
-      </c>
-      <c r="W37" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1304</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>1305</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AD37">
-        <v>0.3</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>1307</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>812</v>
-      </c>
-      <c r="AI37">
-        <v>0.2</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G38">
-        <v>-22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>343</v>
-      </c>
-      <c r="I38">
-        <v>0.01</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K38" t="s">
-        <v>926</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1312</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1313</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>0.02</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>1314</v>
-      </c>
-      <c r="S38" t="s">
-        <v>1315</v>
-      </c>
-      <c r="T38">
-        <v>-27</v>
-      </c>
-      <c r="V38" t="s">
-        <v>1316</v>
-      </c>
-      <c r="W38" t="s">
-        <v>1317</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AD38">
-        <v>0.9</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>887</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F39" t="s">
-        <v>917</v>
-      </c>
-      <c r="G39">
-        <v>-13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>313</v>
-      </c>
-      <c r="I39">
-        <v>0.02</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L39" t="s">
-        <v>958</v>
-      </c>
-      <c r="M39" t="s">
-        <v>802</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1327</v>
-      </c>
-      <c r="S39" t="s">
-        <v>1328</v>
-      </c>
-      <c r="T39">
-        <v>-16</v>
-      </c>
-      <c r="V39" t="s">
-        <v>877</v>
-      </c>
-      <c r="W39" t="s">
-        <v>1329</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>1330</v>
-      </c>
-      <c r="Z39">
-        <v>-15</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>964</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AD39">
-        <v>0.7</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AI39">
-        <v>3</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>1025</v>
-      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11121,7 +11024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A033A350-2E98-4169-AF15-FD2A94DBC112}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11140,7 +11043,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -11158,7 +11061,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -12339,7 +12242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1254A0-4FA6-418A-BE54-ACF400F3A69B}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12358,7 +12261,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -13575,7 +13478,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -18427,7 +18330,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/data/housing_market_Q1/processed/mw2301-january-city-toronto.xlsx
+++ b/src/data/housing_market_Q1/processed/mw2301-january-city-toronto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobs\projects\City of Toronto\src\data\housing_market_Q1\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6F6AA-9F47-4C21-AC09-D565467045F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F613716-B9C2-41FC-98BF-27947393A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="1" xr2:uid="{48823E95-69A9-4C80-A511-FE47259BA26E}"/>
   </bookViews>
@@ -4398,7 +4398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4409,13 +4409,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="116">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4484,7 +4487,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5120,41 +5123,41 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2A1FB53A-A0E2-4230-94F9-203B59C5E5A2}" name="Table_Page013" displayName="Table_Page013" ref="A1:AI39" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{F440DDC7-EA66-4C03-A510-B3316185B7F4}" uniqueName="1" name="Column1" queryTableFieldId="1" headerRowDxfId="24" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{FD9AB0F1-963F-4272-B15F-5BF233DD2F98}" uniqueName="4" name="Toronto Regional Real Estate Board" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{36958580-8E62-4157-AADE-3DD303874EB9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{FDE2657E-7775-4806-A980-A415E548D111}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F440DDC7-EA66-4C03-A510-B3316185B7F4}" uniqueName="1" name="Column1" queryTableFieldId="1" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{FD9AB0F1-963F-4272-B15F-5BF233DD2F98}" uniqueName="4" name="Toronto Regional Real Estate Board" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{36958580-8E62-4157-AADE-3DD303874EB9}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{FDE2657E-7775-4806-A980-A415E548D111}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="20"/>
     <tableColumn id="7" xr3:uid="{013FE8EA-2E13-4F67-8B45-301A21F9230A}" uniqueName="7" name="Column7" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{A44F23FB-1B57-4BAD-8A90-793AEAE99227}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{A44F23FB-1B57-4BAD-8A90-793AEAE99227}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{391F306A-2376-4082-8532-F678D0421560}" uniqueName="9" name="Column9" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{56A8D9D3-5423-4B37-8DE1-61F9D7476A97}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{341E95A2-B316-4E7F-B112-60AA4764A92D}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{7713C1A4-045C-4860-AA84-B62EB45F7079}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{ABB0A4C4-3852-40BA-B7CE-23AE9814C1F4}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{56A8D9D3-5423-4B37-8DE1-61F9D7476A97}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{341E95A2-B316-4E7F-B112-60AA4764A92D}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{7713C1A4-045C-4860-AA84-B62EB45F7079}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{ABB0A4C4-3852-40BA-B7CE-23AE9814C1F4}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="15"/>
     <tableColumn id="14" xr3:uid="{9E300E6A-B933-42E0-AA36-E3CE70E0B2C7}" uniqueName="14" name="Column14" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{546B4149-044A-4A30-AC21-EB4D5C9291C9}" uniqueName="15" name="Column15" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{15769965-D076-49AF-94A8-B11F94FF14AF}" uniqueName="16" name="Column16" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{A1B60577-C90B-4178-8AEB-98E2FF1D3DBC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{A01021F7-E951-4FA8-8629-00A7465EDAA3}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{33C8A4DF-1DD2-4CF2-BD2E-F9EDE1A08DB7}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{A1B60577-C90B-4178-8AEB-98E2FF1D3DBC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{A01021F7-E951-4FA8-8629-00A7465EDAA3}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{33C8A4DF-1DD2-4CF2-BD2E-F9EDE1A08DB7}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="12"/>
     <tableColumn id="20" xr3:uid="{8859C2F8-491C-4F56-9967-2BF47856ECF6}" uniqueName="20" name="Column20" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{E96EE1C9-E9D1-4845-99B1-6716A87D1EEC}" uniqueName="21" name="Column21" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{E9FFB942-8372-4991-8D6C-761CAF5F61CC}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{D65C2AB4-C646-485E-907B-879C8E6E0274}" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{42B5E020-EFFB-401C-A0D9-79F5F25FD208}" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{B44E71B1-E118-4A1F-988F-862432497395}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{E9FFB942-8372-4991-8D6C-761CAF5F61CC}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{D65C2AB4-C646-485E-907B-879C8E6E0274}" uniqueName="23" name="Column23" queryTableFieldId="23" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{42B5E020-EFFB-401C-A0D9-79F5F25FD208}" uniqueName="24" name="Column24" queryTableFieldId="24" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{B44E71B1-E118-4A1F-988F-862432497395}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="8"/>
     <tableColumn id="26" xr3:uid="{1C968C56-9DB7-4084-84EA-E67357A0763D}" uniqueName="26" name="Column26" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{2173DED5-76CB-49B0-A2A3-4487393A1595}" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{1FFC4DE1-612A-4BDC-837A-674313A7CF3B}" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{07AF2613-5C7C-483B-8C62-C59514B42A31}" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{2173DED5-76CB-49B0-A2A3-4487393A1595}" uniqueName="27" name="Column27" queryTableFieldId="27" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{1FFC4DE1-612A-4BDC-837A-674313A7CF3B}" uniqueName="28" name="Column28" queryTableFieldId="28" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{07AF2613-5C7C-483B-8C62-C59514B42A31}" uniqueName="29" name="Column29" queryTableFieldId="29" dataDxfId="5"/>
     <tableColumn id="30" xr3:uid="{DD5FA6CF-4341-4B68-B72F-A10C5E271126}" uniqueName="30" name="Column30" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{90286747-44A0-445D-9255-7634C5F35DC5}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{226C2DB5-BD45-42F4-A02C-FD39B134BB9C}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{91C401B6-CE1A-4D91-BFA1-844DDDE64693}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{90286747-44A0-445D-9255-7634C5F35DC5}" uniqueName="31" name="Column31" queryTableFieldId="31" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{226C2DB5-BD45-42F4-A02C-FD39B134BB9C}" uniqueName="32" name="Column32" queryTableFieldId="32" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{91C401B6-CE1A-4D91-BFA1-844DDDE64693}" uniqueName="33" name="Column33" queryTableFieldId="33" dataDxfId="2"/>
     <tableColumn id="34" xr3:uid="{ECA38CC2-D869-4A32-BB45-DEA3E4CA7BEE}" uniqueName="34" name="Column34" queryTableFieldId="34"/>
     <tableColumn id="35" xr3:uid="{C2B71722-AB86-4EA8-9EE9-73CA3E398669}" uniqueName="35" name="Column35" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{707BC8CD-5A9B-4627-9A28-33993E45A6D9}" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{C105FDD0-1761-40CE-A5C7-16D0F9A83239}" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{707BC8CD-5A9B-4627-9A28-33993E45A6D9}" uniqueName="36" name="Column36" queryTableFieldId="36" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{C105FDD0-1761-40CE-A5C7-16D0F9A83239}" uniqueName="37" name="Column37" queryTableFieldId="37" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11025,7 +11028,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11651,31 +11654,31 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B22" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B22" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>0</v>
       </c>
     </row>
